--- a/files/conferences.xlsx
+++ b/files/conferences.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruipei/Dropbox/website/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7961D7F8-691A-5A47-86A0-C4BF4E5E00CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="12705" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="5940" yWindow="2460" windowWidth="22860" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conferences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>talk</t>
   </si>
@@ -45,64 +51,184 @@
     <t>video_link</t>
   </si>
   <si>
+    <t>Habitual social media use is associated with increased neural activity in the mentalizing network during social exclusion.</t>
+  </si>
+  <si>
+    <t>Pei, R., Meshi, D., Bayer, J., Cascio, C.N., O'Donnell, M.B., Falk, E.B.</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>International Communication Association Annual Meeting.</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xup4nB9zZT0&amp;t=14s</t>
+  </si>
+  <si>
+    <t>Neural activity during risky decision making reflects adolescents' online social network clustering structure.</t>
+  </si>
+  <si>
+    <t>Pei, R., Lauharatanahirun, N., Cascio, C.N., O'Donnell, M.B., Falk, E.B.</t>
+  </si>
+  <si>
     <t>March</t>
   </si>
   <si>
+    <t xml:space="preserve">Society for Research on Adolescents Biennial meeting (conference rescheduled to 2021 due to COVID-19). </t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>Adolescent's neural and self-report responses to fear vs. humor appeals in tobacco-prevention messages.</t>
+  </si>
+  <si>
+    <t>Pei, R., Lauharatanahirun, N., Falk, E.B.</t>
+  </si>
+  <si>
     <t>November</t>
   </si>
   <si>
+    <t>The Medicine, Humanity and Media: Health China &amp; Health Communication.</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+  </si>
+  <si>
+    <t>Neural activity during risky decision making reflects online social network clustering structure.</t>
+  </si>
+  <si>
+    <t>Pei, R., Lauharatanahirun, N., Cascio, C.N., O'Donnell, M.B., Vettel, J.M., Falk, E.B.</t>
+  </si>
+  <si>
+    <t>Social and Affective Neuroscience Society Annual Conference.</t>
+  </si>
+  <si>
+    <t>Miami, Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural activity during risky decision making reflects online social network clustering structure. </t>
+  </si>
+  <si>
+    <t>Best papers in Communcation Science and Biology, International Communication Association Annual Meeting.</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>Are Neural Mechanisms Associated with Social Feedback and Conformity Different among Teens and Young Adults?</t>
+  </si>
+  <si>
+    <t>Cascio, C., Pei, R., Falk, E.B.</t>
+  </si>
+  <si>
+    <t>Message-elicited brain response moderates the relationship between opportunities for exposure to anti-smoking messages and message recall.</t>
+  </si>
+  <si>
+    <t>Kranzler, E. C., Schmaelzle, R., Pei, R.,  Hornik, R.C., &amp; Falk, E. B.</t>
+  </si>
+  <si>
+    <t>Safety versus risk endorsing peer attitudes influence adolescent risk taking through distinct neural mechanisms.</t>
+  </si>
+  <si>
+    <t>Pei, R., Cascio, C., Simons-Morton, B., Falk, E.</t>
+  </si>
+  <si>
+    <t>Prague, Czech Republic.</t>
+  </si>
+  <si>
+    <t>Counterproductive effects of repeated exposure to health campaign messages: Evidence from a neuroimaging study.</t>
+  </si>
+  <si>
+    <t>International Communication Association Annual Conference.</t>
+  </si>
+  <si>
+    <t>Adolescent neural responses to anti-smoking messages, perceived ad effectiveness, and sharing intention and elaboration.</t>
+  </si>
+  <si>
+    <t>Kranzler, E., Pei, R., Schmaelzle, R., O'Donnell, M.B., &amp; Falk, E. B.</t>
+  </si>
+  <si>
     <t>February</t>
   </si>
   <si>
+    <t>Annual Meeting of Society for Research on Nicotine &amp; Tobacco.</t>
+  </si>
+  <si>
+    <t>Baltimore, MD</t>
+  </si>
+  <si>
+    <t>Neural activity during anti-smoking message exposure predicts subsequent message elaboration.</t>
+  </si>
+  <si>
+    <t>Pei, R., Schmaelzle, R., Kranzler, E., O'Donnell, M. B., &amp; Falk, E. B.</t>
+  </si>
+  <si>
+    <t>Best Papers in Information Systems Division,  International Communication Association Annual Conference.</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Role of reinforcement learning in tic expression: Integrating methods from behavioral psychology and computational neuroscience.</t>
+  </si>
+  <si>
+    <t>Conelea, C., Frank, M., Frank, H., Wiecki, T., Pei, R., &amp; Freeman, J.</t>
+  </si>
+  <si>
+    <t>Annual conference of the Association for Behavioral and Cognitive Therapies.</t>
+  </si>
+  <si>
     <t>Philadelphia, PA</t>
   </si>
   <si>
-    <t>Topologically invariant manifolds of C. elegans pan-neuronal activity.</t>
-  </si>
-  <si>
-    <t>Connor Brennan</t>
-  </si>
-  <si>
-    <t>Society for Neuroscience</t>
-  </si>
-  <si>
-    <t>Washington, D.C</t>
-  </si>
-  <si>
-    <t>Philadelphia Chapter of Society for Neuroscience</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>LOOPER: A tool for the semi-supervised extraction of behaviorally relevant dynamics from observations of neural data.</t>
-  </si>
-  <si>
-    <t>Cosyne 20</t>
-  </si>
-  <si>
-    <t>Denver, CO</t>
-  </si>
-  <si>
-    <t>LOOPER: Modeling neuronal dynamics</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Invited speaker for Stephen's Lab</t>
-  </si>
-  <si>
-    <t>Amsterdam, Netherlands</t>
-  </si>
-  <si>
-    <t>Mahoney Institute for Neuroscience "Year of Brain Science Technology"</t>
+    <t>Pei, R., Lauharatanahirun, N., Cascio, C. N., O'Donnell, M.B., Vettel, J.M., Falk, E.B.</t>
+  </si>
+  <si>
+    <t>Liu, J., So, J., Pei, R., &amp; Falk, E.B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Communication Association Annual Conference. </t>
+  </si>
+  <si>
+    <t>针对中国年轻人控烟广告有潜力的信念</t>
+  </si>
+  <si>
+    <t>裴瑞，于莲，赵亮，陈静茜</t>
+  </si>
+  <si>
+    <t>Online/Beijing</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Uv4116737</t>
+  </si>
+  <si>
+    <t>Cultural Influence on COVID-19 Cognitions and Growth Speed: The Role of Cultural Collectivism</t>
+  </si>
+  <si>
+    <t>Pei, R., Cosme, D., Andrews, M. E., Mattan, B., Falk, E. B.</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>International Communication Association Annual Conference. Information systems division</t>
+  </si>
+  <si>
+    <t>Does simulated social support reduce negative emotion during autobiographical remembering?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courtney, A., Ferguson, I., Pei, R., Zaki., J. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -112,10 +238,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,6 +276,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -198,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -233,7 +362,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -410,23 +539,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,108 +581,333 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>2017</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2014</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>